--- a/hackathon_ht3/data/Post-pandemic_travel_lodging-1.xlsx
+++ b/hackathon_ht3/data/Post-pandemic_travel_lodging-1.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="144">
   <si>
     <t>Timestamp</t>
   </si>
@@ -421,6 +421,30 @@
   </si>
   <si>
     <t>Depends on where I am going.  I like to have a house with privacy and full kitchen to cook</t>
+  </si>
+  <si>
+    <t>basic room with basic breakfast in a dining room - not breakfast in bed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I prefer to have as many amenities available </t>
+  </si>
+  <si>
+    <t>By myself, With friends</t>
+  </si>
+  <si>
+    <t>small quaint hotel/motel that has food included in the price</t>
+  </si>
+  <si>
+    <t>I don't like being around a bunch of tourists all the time, plus I like to have a kitchen +_ other amenities available that are typically expensive in hotels + motels. Additionally, the location is a lot better and the place has a nice, custom atmosphere.</t>
+  </si>
+  <si>
+    <t>With friends, With family, with S.O.</t>
+  </si>
+  <si>
+    <t>Airbnb or Motel - it's safer bc less interaction with others, and you can (usually) get closer to outdoor activities compared to hotels/motels.</t>
+  </si>
+  <si>
+    <t>nope</t>
   </si>
 </sst>
 </file>
@@ -2835,6 +2859,136 @@
         <v>31</v>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" s="2">
+        <v>44279.709348738426</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E32" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J32" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="K32" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="O32" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="T32" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="U32" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2">
+        <v>44279.711815787035</v>
+      </c>
+      <c r="B33" s="3">
+        <v>25.0</v>
+      </c>
+      <c r="C33" s="3">
+        <v>94530.0</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E33" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J33" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="K33" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="L33" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="M33" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="O33" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="P33" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="R33" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="S33" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="T33" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="U33" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V33" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="W33" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
